--- a/Resources/logist_summary.xlsx
+++ b/Resources/logist_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://communsol-my.sharepoint.com/personal/judith_calvo_communitysolutions_org/Documents/_aUCB Data Analytics Bootcamp Class/Final Project Folder/ML/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{32E58664-8729-4193-B385-DE959E621123}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{89FA2C3A-578D-4117-92C5-F06DABC2E990}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{32E58664-8729-4193-B385-DE959E621123}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{C246BFAC-7FF9-4965-826E-B25E4B7F7D7A}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6DCDD56B-4968-4412-B177-F2343CA0FA50}"/>
   </bookViews>
@@ -54,21 +54,6 @@
     <t>UCL</t>
   </si>
   <si>
-    <t>cans_ldf_rec</t>
-  </si>
-  <si>
-    <t>cans_ldf_social_func</t>
-  </si>
-  <si>
-    <t>cans_yb_opposition</t>
-  </si>
-  <si>
-    <t>cans_ys_family</t>
-  </si>
-  <si>
-    <t>ADHD</t>
-  </si>
-  <si>
     <t>DSM 5 Oppositional defiant disorder</t>
   </si>
   <si>
@@ -82,6 +67,21 @@
   </si>
   <si>
     <t>_Constant (y-intercept)</t>
+  </si>
+  <si>
+    <t>Recreational functioning (CANS score)</t>
+  </si>
+  <si>
+    <t>Social functioning (CANS)</t>
+  </si>
+  <si>
+    <t>Defiant oppositional behavior (CANS)</t>
+  </si>
+  <si>
+    <t>Family strength (CANS)</t>
+  </si>
+  <si>
+    <t>DSM5 ADHD</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -489,7 +489,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3">
         <v>-0.1072</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3">
         <v>4.4000000000000003E-3</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3">
         <v>-0.22220000000000001</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3">
         <v>-0.1095</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3">
         <v>-0.25440000000000002</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7" s="3">
         <v>-0.29549999999999998</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3">
         <v>-3.6799999999999999E-2</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3">
         <v>0.2949</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10" s="3">
         <v>-0.72460000000000002</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3">
         <v>-0.66320000000000001</v>
@@ -732,6 +732,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B03C3E295CF76648AC85B6EC26361ECA" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0bb9dd14d241c245318bb8942e244b1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b42430d8-c205-408e-a6b2-f7bcf1ddda46" xmlns:ns4="076ed714-3a77-4f17-8bbf-04471c3fc2e1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d56a7a2c73efd02ab063fa24f087166" ns3:_="" ns4:_="">
     <xsd:import namespace="b42430d8-c205-408e-a6b2-f7bcf1ddda46"/>
@@ -954,12 +960,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD18A2E2-0809-4442-AC57-D5696055583F}">
   <ds:schemaRefs>
@@ -969,6 +969,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2088DB5D-435C-465C-BB89-1F10BB860163}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="076ed714-3a77-4f17-8bbf-04471c3fc2e1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b42430d8-c205-408e-a6b2-f7bcf1ddda46"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25799218-7A62-4A48-A6DB-34C59A87F32F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -985,21 +1002,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2088DB5D-435C-465C-BB89-1F10BB860163}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="076ed714-3a77-4f17-8bbf-04471c3fc2e1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b42430d8-c205-408e-a6b2-f7bcf1ddda46"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Resources/logist_summary.xlsx
+++ b/Resources/logist_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://communsol-my.sharepoint.com/personal/judith_calvo_communitysolutions_org/Documents/_aUCB Data Analytics Bootcamp Class/Final Project Folder/ML/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{32E58664-8729-4193-B385-DE959E621123}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{C246BFAC-7FF9-4965-826E-B25E4B7F7D7A}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{32E58664-8729-4193-B385-DE959E621123}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{1123B45C-6CE5-4006-88D4-53147AE5614C}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6DCDD56B-4968-4412-B177-F2343CA0FA50}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6DCDD56B-4968-4412-B177-F2343CA0FA50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -456,12 +456,13 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection sqref="A1:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -723,18 +724,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -961,26 +962,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD18A2E2-0809-4442-AC57-D5696055583F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2088DB5D-435C-465C-BB89-1F10BB860163}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="b42430d8-c205-408e-a6b2-f7bcf1ddda46"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="076ed714-3a77-4f17-8bbf-04471c3fc2e1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2088DB5D-435C-465C-BB89-1F10BB860163}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DD18A2E2-0809-4442-AC57-D5696055583F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="076ed714-3a77-4f17-8bbf-04471c3fc2e1"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b42430d8-c205-408e-a6b2-f7bcf1ddda46"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
